--- a/experiments/exp3/exp3.xlsx
+++ b/experiments/exp3/exp3.xlsx
@@ -568,11 +568,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-2106774560"/>
-        <c:axId val="-2108570720"/>
+        <c:axId val="2136010336"/>
+        <c:axId val="2136002224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2106774560"/>
+        <c:axId val="2136010336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108570720"/>
+        <c:crossAx val="2136002224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -688,7 +688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108570720"/>
+        <c:axId val="2136002224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,28 +733,8 @@
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
                   </a:rPr>
-                  <a:t>Seconds</a:t>
+                  <a:t>Time (Seconds)</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" charset="0"/>
-                    <a:ea typeface="Times New Roman" charset="0"/>
-                    <a:cs typeface="Times New Roman" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" charset="0"/>
-                  <a:ea typeface="Times New Roman" charset="0"/>
-                  <a:cs typeface="Times New Roman" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -820,7 +800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106774560"/>
+        <c:crossAx val="2136010336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1473,13 +1453,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>46935</xdr:colOff>
+      <xdr:colOff>37732</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>128843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>432537</xdr:colOff>
+      <xdr:colOff>423334</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>128840</xdr:rowOff>
     </xdr:to>
@@ -1504,7 +1484,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="12" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="32" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,7 +1492,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="32" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="12" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1859,15 +1839,15 @@
         <v>93.132255999999998</v>
       </c>
       <c r="I2">
-        <f>F2*C2/(1000*10000)+8157/(POWER(2,C2))</f>
+        <f t="shared" ref="I2:I12" si="0">F2*C2/(1000*10000)+8157/(POWER(2,C2))</f>
         <v>127.4531808793536</v>
       </c>
       <c r="J2">
-        <f>G2*C2/(1000 * 10000) + 2360/POWER(2,C2)</f>
+        <f t="shared" ref="J2:J12" si="1">G2*C2/(1000 * 10000) + 2360/POWER(2,C2)</f>
         <v>36.875055879353603</v>
       </c>
       <c r="K2">
-        <f>H2*C2/(1000 * 10000) + 989/POWER(2,C2)</f>
+        <f t="shared" ref="K2:K12" si="2">H2*C2/(1000 * 10000) + 989/POWER(2,C2)</f>
         <v>15.453180879353599</v>
       </c>
     </row>
@@ -1897,15 +1877,15 @@
         <v>93.132255999999998</v>
       </c>
       <c r="I3">
-        <f>F3*C3/(1000*10000)+8157/(POWER(2,C3))</f>
+        <f t="shared" si="0"/>
         <v>63.726629000000003</v>
       </c>
       <c r="J3">
-        <f>G3*C3/(1000 * 10000) + 2360/POWER(2,C3)</f>
+        <f t="shared" si="1"/>
         <v>18.4375651925792</v>
       </c>
       <c r="K3">
-        <f>H3*C3/(1000 * 10000) + 989/POWER(2,C3)</f>
+        <f t="shared" si="2"/>
         <v>7.7266276925791999</v>
       </c>
     </row>
@@ -1935,15 +1915,15 @@
         <v>93.132255999999998</v>
       </c>
       <c r="I4">
-        <f>F4*C4/(1000*10000)+8157/(POWER(2,C4))</f>
+        <f t="shared" si="0"/>
         <v>31.863362850000001</v>
       </c>
       <c r="J4">
-        <f>G4*C4/(1000 * 10000) + 2360/POWER(2,C4)</f>
+        <f t="shared" si="1"/>
         <v>9.218826</v>
       </c>
       <c r="K4">
-        <f>H4*C4/(1000 * 10000) + 989/POWER(2,C4)</f>
+        <f t="shared" si="2"/>
         <v>3.8633557558048</v>
       </c>
     </row>
@@ -1973,15 +1953,15 @@
         <v>95</v>
       </c>
       <c r="I5">
-        <f>F5*C5/(1000*10000)+8157/(POWER(2,C5))</f>
+        <f t="shared" si="0"/>
         <v>15.931739625000001</v>
       </c>
       <c r="J5">
-        <f>G5*C5/(1000 * 10000) + 2360/POWER(2,C5)</f>
+        <f t="shared" si="1"/>
         <v>4.6094667999999999</v>
       </c>
       <c r="K5">
-        <f>H5*C5/(1000 * 10000) + 989/POWER(2,C5)</f>
+        <f t="shared" si="2"/>
         <v>1.931726125</v>
       </c>
     </row>
@@ -2011,15 +1991,15 @@
         <v>102</v>
       </c>
       <c r="I6">
-        <f>F6*C6/(1000*10000)+8157/(POWER(2,C6))</f>
+        <f t="shared" si="0"/>
         <v>7.9659403124999999</v>
       </c>
       <c r="J6">
-        <f>G6*C6/(1000 * 10000) + 2360/POWER(2,C6)</f>
+        <f t="shared" si="1"/>
         <v>2.3047974999999998</v>
       </c>
       <c r="K6">
-        <f>H6*C6/(1000 * 10000) + 989/POWER(2,C6)</f>
+        <f t="shared" si="2"/>
         <v>0.96592231250000005</v>
       </c>
     </row>
@@ -2049,15 +2029,15 @@
         <v>110</v>
       </c>
       <c r="I7">
-        <f>F7*C7/(1000*10000)+8157/(POWER(2,C7))</f>
+        <f t="shared" si="0"/>
         <v>3.9830638244680001</v>
       </c>
       <c r="J7">
-        <f>G7*C7/(1000 * 10000) + 2360/POWER(2,C7)</f>
+        <f t="shared" si="1"/>
         <v>1.15247575</v>
       </c>
       <c r="K7">
-        <f>H7*C7/(1000 * 10000) + 989/POWER(2,C7)</f>
+        <f t="shared" si="2"/>
         <v>0.48303115624999998</v>
       </c>
     </row>
@@ -2087,15 +2067,15 @@
         <v>120</v>
       </c>
       <c r="I8">
-        <f>F8*C8/(1000*10000)+8157/(POWER(2,C8))</f>
+        <f t="shared" si="0"/>
         <v>1.991664625713</v>
       </c>
       <c r="J8">
-        <f>G8*C8/(1000 * 10000) + 2360/POWER(2,C8)</f>
+        <f t="shared" si="1"/>
         <v>0.57633951305599995</v>
       </c>
       <c r="K8">
-        <f>H8*C8/(1000 * 10000) + 989/POWER(2,C8)</f>
+        <f t="shared" si="2"/>
         <v>0.24159907812500001</v>
       </c>
     </row>
@@ -2125,15 +2105,15 @@
         <v>139.69837999999999</v>
       </c>
       <c r="I9">
-        <f>F9*C9/(1000*10000)+8157/(POWER(2,C9))</f>
+        <f t="shared" si="0"/>
         <v>0.99609075485050003</v>
       </c>
       <c r="J9">
-        <f>G9*C9/(1000 * 10000) + 2360/POWER(2,C9)</f>
+        <f t="shared" si="1"/>
         <v>0.28831294738699997</v>
       </c>
       <c r="K9">
-        <f>H9*C9/(1000 * 10000) + 989/POWER(2,C9)</f>
+        <f t="shared" si="2"/>
         <v>0.1209091469565</v>
       </c>
     </row>
@@ -2163,15 +2143,15 @@
         <v>185.53693000000001</v>
       </c>
       <c r="I10">
-        <f>F10*C10/(1000*10000)+8157/(POWER(2,C10))</f>
+        <f t="shared" si="0"/>
         <v>0.49858088789124999</v>
       </c>
       <c r="J10">
-        <f>G10*C10/(1000 * 10000) + 2360/POWER(2,C10)</f>
+        <f t="shared" si="1"/>
         <v>0.14449931681</v>
       </c>
       <c r="K10">
-        <f>H10*C10/(1000 * 10000) + 989/POWER(2,C10)</f>
+        <f t="shared" si="2"/>
         <v>6.0623521233250002E-2</v>
       </c>
     </row>
@@ -2201,15 +2181,15 @@
         <v>325.96289999999999</v>
       </c>
       <c r="I11">
-        <f>F11*C11/(1000*10000)+8157/(POWER(2,C11))</f>
+        <f t="shared" si="0"/>
         <v>0.25046856696562497</v>
       </c>
       <c r="J11">
-        <f>G11*C11/(1000 * 10000) + 2360/POWER(2,C11)</f>
+        <f t="shared" si="1"/>
         <v>7.2842212375000007E-2</v>
       </c>
       <c r="K11">
-        <f>H11*C11/(1000 * 10000) + 989/POWER(2,C11)</f>
+        <f t="shared" si="2"/>
         <v>3.0670829115624999E-2</v>
       </c>
     </row>
@@ -2239,15 +2219,15 @@
         <v>651.92579999999998</v>
       </c>
       <c r="I12">
-        <f>F12*C12/(1000*10000)+8157/(POWER(2,C12))</f>
+        <f t="shared" si="0"/>
         <v>0.1275951860628125</v>
       </c>
       <c r="J12">
-        <f>G12*C12/(1000 * 10000) + 2360/POWER(2,C12)</f>
+        <f t="shared" si="1"/>
         <v>3.7649869867499998E-2</v>
       </c>
       <c r="K12">
-        <f>H12*C12/(1000 * 10000) + 989/POWER(2,C12)</f>
+        <f t="shared" si="2"/>
         <v>1.61340236628125E-2</v>
       </c>
     </row>
